--- a/medicine/Pharmacie/Pseudoéphédrine/Pseudoéphédrine.xlsx
+++ b/medicine/Pharmacie/Pseudoéphédrine/Pseudoéphédrine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pseudo%C3%A9ph%C3%A9drine</t>
+          <t>Pseudoéphédrine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La pseudoéphédrine est une amine sympathomimétique fréquemment utilisée comme décongestionnant. Ses sels, chlorhydrate et sulfate sont utilisés dans nombre de médicaments sans ordonnance. Ils sont utilisés seuls ou en association avec un antihistaminique et un antipyrétique (paracétamol ou ibuprofène).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pseudo%C3%A9ph%C3%A9drine</t>
+          <t>Pseudoéphédrine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La pseudoéphédrine est une substance agissant sur le système nerveux sympathique. Elle franchit facilement la barrière hématoencéphalique, et son pic plasmatique est atteint entre 1 h et 1 h 30 min.
 Elle ne possède pas d'affinité pour les transporteurs de la dopamine, de la sérotonine ou de la noradrénaline. Cependant, elle se fixe sur les récepteurs α et β-adrénergiques. On décrit la pseudoéphédrine comme agent libérateur de noradrénaline. En effet en se fixant sur le récepteur α2-adrénergique, elle active indirectement le TAAR1 qui produit une inhibition du stockage vésiculaire de la noradrénaline. Elle est donc libérée abondamment. Il est important de noter que le récepteur α2 et le TAAR1 forment ensemble un oligomère responsable de l'activation de ce dernier.
@@ -547,7 +561,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pseudo%C3%A9ph%C3%A9drine</t>
+          <t>Pseudoéphédrine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -565,7 +579,9 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La pseudoéphédrine est une molécule chirale et contient deux carbones chiraux. On appelle pseudoéphédrine les énantiomères (1R, 2R) et (1S,2S) de l'éphédrine. Elle est présente naturellement sous un mélange racémique et dans de nombreux médicaments, sous forme (1S,2S).
 </t>
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pseudo%C3%A9ph%C3%A9drine</t>
+          <t>Pseudoéphédrine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,12 +612,14 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, un rapport de la Commission nationale de pharmacovigilance, daté de mars 2008[3], met en garde contre les nombreux effets indésirables de la pseudoéphédrine. Il s'agit notamment d'effets cardiovasculaires et neurologiques centraux qui, s'ils sont relativement rares, sont graves et nécessitent une hospitalisation.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, un rapport de la Commission nationale de pharmacovigilance, daté de mars 2008, met en garde contre les nombreux effets indésirables de la pseudoéphédrine. Il s'agit notamment d'effets cardiovasculaires et neurologiques centraux qui, s'ils sont relativement rares, sont graves et nécessitent une hospitalisation.
 Ces effets « sont peu acceptables », indique le rapport, « et à mettre en balance avec l'aspect bénin de la pathologie traitée (“rhume”). »
-Dans un article publié en 2009[4], la revue Prescrire propose de « bannir ces médicaments des pharmacies et des conseils ».
-En avril 2011, dans un numéro consacré aux « médicaments inutiles ou dangereux »[5], Que Choisir Santé regrette que, trois ans après le rapport de la Commission nationale de pharmacovigilance, les produits contenant de la pseudoéphédrine soient toujours sur le marché. « Cela n'est pas acceptable », conclut la revue. En 2017, 60 millions de consommateurs affirme également que les médicaments contenant de la pseudoéphédrine par voie orale sont à proscrire et devraient être retirés du marché[6].
+Dans un article publié en 2009, la revue Prescrire propose de « bannir ces médicaments des pharmacies et des conseils ».
+En avril 2011, dans un numéro consacré aux « médicaments inutiles ou dangereux », Que Choisir Santé regrette que, trois ans après le rapport de la Commission nationale de pharmacovigilance, les produits contenant de la pseudoéphédrine soient toujours sur le marché. « Cela n'est pas acceptable », conclut la revue. En 2017, 60 millions de consommateurs affirme également que les médicaments contenant de la pseudoéphédrine par voie orale sont à proscrire et devraient être retirés du marché.
 </t>
         </is>
       </c>
@@ -612,7 +630,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pseudo%C3%A9ph%C3%A9drine</t>
+          <t>Pseudoéphédrine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -630,9 +648,11 @@
           <t>Utilisation non médicale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À partir du 1er janvier 2010, la pseudoéphédrine fait de nouveau partie de la liste des produits interdits  établie par l'Agence mondiale antidopage[7]. Elle avait été autorisée en 2004. Le seuil de concentration maximal dans l’urine est fixé à 150 microgrammes par millilitre[8]. La pseudoéphédrine peut être utilisée pour fabriquer de la méthamphétamine.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À partir du 1er janvier 2010, la pseudoéphédrine fait de nouveau partie de la liste des produits interdits  établie par l'Agence mondiale antidopage. Elle avait été autorisée en 2004. Le seuil de concentration maximal dans l’urine est fixé à 150 microgrammes par millilitre. La pseudoéphédrine peut être utilisée pour fabriquer de la méthamphétamine.
 </t>
         </is>
       </c>
@@ -643,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pseudo%C3%A9ph%C3%A9drine</t>
+          <t>Pseudoéphédrine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,9 +681,11 @@
           <t>Usage récréatif</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pseudoéphédrine, tout comme l'éphédrine, a des effets psychotropes similaires aux amphétamines mais ceux-ci sont  moins importants à dose égale[9].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pseudoéphédrine, tout comme l'éphédrine, a des effets psychotropes similaires aux amphétamines mais ceux-ci sont  moins importants à dose égale.
 La pseudoéphédrine est notamment un précurseur direct de la méthamphétamine (aussi appelé « crystal meth », « tina » ou « ice »).
 La pseudoéphédrine provoque, comme les amphétamines, une certaine euphorie, un effet stimulant et un effet coupe-faim. À dose forte, la pseudoéphédrine peut provoquer des hallucinations.  
 La pseudoéphédrine ne provoque pas de période d'arrêt psychoactive brusque. Son syndrome de sevrage est inexistant et ne provoque que de très léger effet de sevrage (uniquement dû à la baisse du taux synaptique de Noradrénaline). Son accoutumance apparaît en 10 jours et n'occasionne aucune manifestation somatique à l'arrêt de la consommation.  
